--- a/DATA/IsoData/DELAIsoData.xlsx
+++ b/DATA/IsoData/DELAIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">25fb30e5-76ac-43b2-8b79-b97f849c8b27</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">721e63da-f63b-47be-892e-d89b7519911f</t>
   </si>
   <si>
     <t xml:space="preserve">DELA.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170357Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9d7078d4-64a1-4f6f-8a59-7884c45e9035</t>
+    <t xml:space="preserve">20210112T164651Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4578deca-2df5-498a-8058-79cb9e924779</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.DELA.20190416.1051</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000081957</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164513Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f74e7950-020c-4708-a4c4-8ce22b34d029</t>
+    <t xml:space="preserve">20210112T161940Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6eac6150-8409-45ea-941d-315d76bfd383</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.DELA.20190529.0830</t>
@@ -116,10 +122,10 @@
     <t xml:space="preserve">A00000082726</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163646Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b8e6409b-1bf6-440e-9909-b9d8d9f36404</t>
+    <t xml:space="preserve">20210112T162948Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbc93b17-718e-465a-832a-28bf29e56a7c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.DELA.20190710.0115</t>
@@ -131,10 +137,10 @@
     <t xml:space="preserve">A00000083261</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162406Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1286dac6-48c4-436f-aea2-ad541e6125d2</t>
+    <t xml:space="preserve">20210112T160214Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbe6adaa-3167-4526-9ff1-df787f9a38ae</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.DELA.20190806.0930</t>
@@ -146,10 +152,10 @@
     <t xml:space="preserve">A00000083610</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163425Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16610294-bce0-44d4-96bd-a858e91e6487</t>
+    <t xml:space="preserve">20210112T161620Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69f70775-a84e-4334-b849-bcf1bf0698ce</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.DELA.20190905.0930</t>
@@ -161,10 +167,25 @@
     <t xml:space="preserve">A00000114320</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162154Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5c9eff5e-5520-4b6e-879f-30386074d73c</t>
+    <t xml:space="preserve">20210112T163351Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10fc2245-e479-42e5-a92a-ca11120b7206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.DELA.20191017.0934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.DELA.20191017.0934.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000145214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T163841Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdc2686e-3e03-47bf-9314-96d2908d2ef0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.DELA.20191030.0915</t>
@@ -176,19 +197,37 @@
     <t xml:space="preserve">A00000145435</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161836Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aee84f57-14a7-4dfa-9a48-49378f253e53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.DELA.20191017.0934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.DELA.20191017.0934.ISO.TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A00000145214</t>
+    <t xml:space="preserve">bd9e3e1c-6d74-4b5b-a44b-732f9ee40270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.DELA.20200122.1240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.DELA.20200122.1240.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000145942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T164206Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e7e023e-0cb6-4669-bcfa-1b707df50c38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.DELA.20200305.1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.DELA.20200305.1100.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T163411Z</t>
   </si>
 </sst>
 </file>
@@ -526,7 +565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -580,23 +619,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43480.7326388889</v>
@@ -617,35 +659,38 @@
         <v>0.391</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43537.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43501.7979166667</v>
@@ -666,35 +711,38 @@
         <v>0.079</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43571.6604166667</v>
@@ -715,35 +763,38 @@
         <v>0.329</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43614.5625</v>
@@ -764,35 +815,38 @@
         <v>0.263</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43752.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43656.2604166667</v>
@@ -813,35 +867,38 @@
         <v>0.083</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43752.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43683.6111111111</v>
@@ -862,115 +919,228 @@
         <v>0.173</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43752.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>43363.7395833333</v>
+        <v>43713.6041666667</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>43768.59375</v>
+        <v>43755.6069444444</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.106</v>
+        <v>-5.918</v>
       </c>
       <c r="J8" t="n">
-        <v>-18.791</v>
+        <v>-34.888</v>
       </c>
       <c r="K8" t="n">
-        <v>0.033</v>
+        <v>0.025</v>
       </c>
       <c r="L8" t="n">
-        <v>0.075</v>
+        <v>0.081</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>43713.6041666667</v>
+        <v>43755.6041666667</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>43755.6069444444</v>
+        <v>43768.59375</v>
       </c>
       <c r="I9" t="n">
-        <v>-5.918</v>
+        <v>-4.106</v>
       </c>
       <c r="J9" t="n">
-        <v>-34.888</v>
+        <v>-18.791</v>
       </c>
       <c r="K9" t="n">
-        <v>0.025</v>
+        <v>0.033</v>
       </c>
       <c r="L9" t="n">
-        <v>0.081</v>
+        <v>0.075</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>43768.59375</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>43852.7777777778</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4.265</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-19.096</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>43990.75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>43852.78125</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>43895.7083333333</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4.473</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-21.802</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>43990.75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
